--- a/Dati wiki/nodes_meaning_Ex.xlsx
+++ b/Dati wiki/nodes_meaning_Ex.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi\Documents\GitHub\sna-project-2022_cosmo_d-arrigo_esposito\Dati wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{097E4F45-4442-4D38-B620-61C149263171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD55460E-B7C1-4C67-B922-DC02208A4F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="5772" yWindow="0" windowWidth="17268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_meaning" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="628">
   <si>
     <t>Tag</t>
   </si>
@@ -52,9 +52,6 @@
     <t>climatechange</t>
   </si>
   <si>
-    <t xml:space="preserve"> Contemporary climate change includes both global warming and its impacts on Earth's weather patterns. There have been previous periods of climate change, but the current changes are distinctly more rapid and not due to natural causes. </t>
-  </si>
-  <si>
     <t>climateemergency</t>
   </si>
   <si>
@@ -610,20 +607,1318 @@
     <t>onu</t>
   </si>
   <si>
-    <t>United Nations in other languages, e.g. French Organisation des Nations Unies and Arabic:</t>
-  </si>
-  <si>
     <t>School Strike for Climate Swedish, also known variously as Fridays for Future (FFF), Youth for Climate, Climate Strike or Youth Strike for Climate, is an international movement of school students who skip Friday classes to participate in demonstrations to demand action from political leaders to prevent climate change and for the fossil fuel industry to transition to renewable energy. Publicity and widespread organising began after Swedish pupil Greta Thunberg staged a protest in August 2018 outside of the Swedish Riksdag (parliament), holding a sign that read "Skolstrejk för klimatet" ("School strike for climate").A global strike on 15 March 2019 gathered more than one million strikers in 2,200 strikes organised in 125 countries. On 24 May 2019, in the second glo</t>
   </si>
   <si>
     <t>Natural environment, all living and non-living things occurring naturally Biophysical environment, the physical and biological factors along with their chemical interactions that affect an organism or a group of organisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary climate change includes both global warming and its impacts on Earth's weather patterns. There have been previous periods of climate change, but the current changes are distinctly more rapid and not due to natural causes. </t>
+  </si>
+  <si>
+    <t>The United Nations (UN) is an intergovernmental organization whose purposes are to maintain international peace and security, develop friendly relations among nations, achieve international cooperation, and be a centre for harmonizing the actions of nations It is the world's largest and most familiar international organization</t>
+  </si>
+  <si>
+    <t>scientists4future</t>
+  </si>
+  <si>
+    <t>fridaymorning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day on which the event usually takes exactly slogan fridays for future </t>
+  </si>
+  <si>
+    <t>scientists community for the best future research university slogan</t>
+  </si>
+  <si>
+    <t>endcoal</t>
+  </si>
+  <si>
+    <t>stop use coal mineral extraction strike</t>
+  </si>
+  <si>
+    <t>govegan</t>
+  </si>
+  <si>
+    <t>Going vegan is a great opportunity to learn more about nutrition and cooking, and improve your diet. Getting your nutrients from plant foods allows more room in your diet for health-promoting options like whole grains, fruit, nuts, seeds and vegetables, which are packed full of beneficial fibre, vitamins and minerals.</t>
+  </si>
+  <si>
+    <t>parentsforfuture</t>
+  </si>
+  <si>
+    <t>slogan Fridays for future parents must work to help young people improve the future against the climate crisis</t>
+  </si>
+  <si>
+    <t>biodiversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The term biodiversity (from “biological diversity”) refers to the variety of life on Earth at all its levels, from genes to ecosystems, and can encompass the evolutionary, ecological, and cultural processes that sustain life. </t>
+  </si>
+  <si>
+    <t>hambibleibt</t>
+  </si>
+  <si>
+    <t>Hambach Forest (German: Hambacher Wald, Hambacher Forst (German pronunciation:  Bürgewald, Die Bürge  is an ancient forest located near Buir in North Rhine-Westphalia, western Germany, between Cologne and Aachen. It was planned to be cleared as part of the Hambach surface mine by owner RWE AG. There were protests and occupations from 2012 against this, and in 2020 a law was passed to preserve it.</t>
+  </si>
+  <si>
+    <t>noplanetb</t>
+  </si>
+  <si>
+    <t>We must energize Plan A for Action to make the one planet we have safe and productive for future generations — with job creation not loss; with higher, not lower standards of living. All over the world, No Planet B is an increasingly heard call for action.</t>
+  </si>
+  <si>
+    <t>howdareyou</t>
+  </si>
+  <si>
+    <t>Used to express indignation and shock at another person's actions.</t>
+  </si>
+  <si>
+    <t>unitebehindthescience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title song of Cop25 Greta Thunberg </t>
+  </si>
+  <si>
+    <t>tiredearth</t>
+  </si>
+  <si>
+    <t>Tired Earth is an international environmental group trying to improve awareness and increase the hope for a shiny future.</t>
+  </si>
+  <si>
+    <t>defendthedefenders</t>
+  </si>
+  <si>
+    <t>DefendDefenders is the East and Horn of Africa Human Rights Defenders Project. We seek to strengthen the work of human rights defenders (HRDs) throughout the region by reducing their vulnerability to the risk of persecution and by enhancing their capacity to effectively defend human rights.</t>
+  </si>
+  <si>
+    <t>climatejusticenow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a global coalition of networks and organizations campaigning for climate justice. The coalition was founded at the 2007 </t>
+  </si>
+  <si>
+    <t>savetheplanet</t>
+  </si>
+  <si>
+    <t>is a famous slogan of Friday for future to say that it is important to save our planet because if we do not save it soon will face destruction</t>
+  </si>
+  <si>
+    <t>a protest in which people refuse to go to work or school as a way of drawing attention to climate change and demanding action from governments:</t>
+  </si>
+  <si>
+    <t>comicsforclimate</t>
+  </si>
+  <si>
+    <t>Create an eco-comic book to inspire other kids to take climate action.</t>
+  </si>
+  <si>
+    <t>blackfriday</t>
+  </si>
+  <si>
+    <t>event in which the fridays for future movement made a protest against the conduct of the blackfriday</t>
+  </si>
+  <si>
+    <t>demvoice1</t>
+  </si>
+  <si>
+    <t>twitter page of democrats We are a grassroots organization dedicated to help Democratic candidates stay in the office and to get elected in the first place!</t>
+  </si>
+  <si>
+    <t>thunberg</t>
+  </si>
+  <si>
+    <t>surname of Greta thunberg</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>The European Union (EU) is a political and economic union of 27 member states that are located primarily in Europe. The union has a total area of  and an estimated total population of about 447 million. An internal single market has been established through a standardised system of laws that apply in all member states in those matters, and only those matters, where the states have agreed to act as one</t>
+  </si>
+  <si>
+    <t>globalstrike</t>
+  </si>
+  <si>
+    <t>global event for climate strike</t>
+  </si>
+  <si>
+    <t>blacklivesmatter</t>
+  </si>
+  <si>
+    <t>Black Lives Matter (abbreviated BLM) is a decentralized political and social movement that seeks to highlight racism, discrimination, and inequality experienced by black people. When its supporters come together, they do so primarily to protest incidents of police brutality and racially motivated violence against black people. It started following the killings of Trayvon Martin, Michael Brown, Eric Garner, Pamela Turner and Rekia Boyd, among others. The movement and its related organizations typically advocate for various policy changes considered to be related to black liberation.  While there are specific organizations that label themselves simply as "Black Lives Matter," such as the Black Lives Matter Global Network, the overall movement is a decentralized network of people and organizat</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>Love encompasses a range of strong and positive emotional and mental states, from the most sublime virtue or good habit, the deepest interpersonal affection, to the simplest pleasure. An example of this range of meanings is that the love of a mother differs from the love of a spouse, which differs from the love for food. Most commonly, love refers to a feeling of a strong attraction and emotional attachment.Love is considered to be both positive and negative, with its virtue representing human kindness, compassion, and affection, as "the unselfish loyal and benevolent concern for the good of another" and its vice representing human moral flaw, akin to vanity, selfishness, amour-propre, and egotism, as potentially leading people into a type of mania, obsessiveness or codependency</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Gas is one of the four fundamental states of matter (the others being solid, liquid, and plasma).A pure gas may be made up of individual atoms (e.g. a noble gas like neon), elemental molecules made from one type of atom (e.g. oxygen), or compound molecules made from a variety of atoms (e.g. carbon dioxide). A gas mixture, such as air, contains a variety of pure gases. What distinguishes a gas from liquids and solids is the vast separation of the individual gas particles. This separation usually makes a colourless gas invisible to the human observer.</t>
+  </si>
+  <si>
+    <t>earthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Day is an annual event on April 22 to demonstrate support for environmental protection. First held on April 22, 1970, it now includes a wide range of events coordinated globally by EarthDay.org (formerly Earth Day Network) including 1 billion people in more than 193 countries. The official theme for 2022 is Invest In Our Planet.In 1969 at a UNESCO Conference in San Francisco, peace activist John McConnell proposed a day to honor the Earth and the concept of peace, to first be observed on March 21, 1970, the first day of spring in the northern hemisphere. </t>
+  </si>
+  <si>
+    <t>climatebrawl</t>
+  </si>
+  <si>
+    <t>Climate deniers frolic freely in this virtual world, as keyboard outlaws who scour Google for blogs, memes, doctored graphs, and YouTube videos</t>
+  </si>
+  <si>
+    <t>DonaldTrump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald John Trump (born June 14, 1946) is an American politician, media personality, and businessman who served as the 45th president of the United States from 2017 to 2021.
+Trump graduated from the Wharton School of the University of Pennsylvania with a bachelor's degree in 1968. He became president of his father Fred Trump's real estate business in 1971 and renamed it The Trump Organization. </t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Innovation is the practical implementation of ideas that result in the introduction of new goods or services or improvement in offering goods or services. ISO TC 279 in the standard ISO 56000:2020  defines innovation as "a new or changed entity realizing or redistributing value". Others have different definitions; a common element in the definitions is a focus on newness, improvement, and spread of ideas or technologies.</t>
+  </si>
+  <si>
+    <t>nonazis</t>
+  </si>
+  <si>
+    <t>be against the Nazis</t>
+  </si>
+  <si>
+    <t>clima</t>
+  </si>
+  <si>
+    <t>The definition of climate is the weather of a location over time or the environment or mood.</t>
+  </si>
+  <si>
+    <t>fightclimateinjustice</t>
+  </si>
+  <si>
+    <t>An end to dirty and harmful energy; a fulfillment of peoples' rights to energy for their basic needs; A swift change to public and community renewable and clean energy; An end to the excessive and wasteful energy consumption by corporations and elites.</t>
+  </si>
+  <si>
+    <t>systemchange</t>
+  </si>
+  <si>
+    <t>Systemic change is generally understood to require adjustments or transformations in the policies, practices, power dynamics, social norms or mindsets that underlie the societal issue at stake</t>
+  </si>
+  <si>
+    <t>earthstrike</t>
+  </si>
+  <si>
+    <t>Earth Strike is an international grassroots movement that called for a global general strike for climate action. Their aim was a global general strike lasting from 20 until 27 September 2019.</t>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>Photography is the art, application, and practice of creating durable images by recording light, either electronically by means of an image sensor, or chemically by means of a light-sensitive material such as photographic film. It is employed in many fields of science, manufacturing (e.g., photolithography), and business, as well as its more direct uses for art, film and video production, recreational purposes, hobby, and mass communication.Typically, a lens is used to focus the light reflected or emitted from objects into a real image on the light-sensitive surface inside a camera during a timed exposure</t>
+  </si>
+  <si>
+    <t>youthstrike4climate</t>
+  </si>
+  <si>
+    <t>Bristol Youth Strike 4 Climate (abbreviated as BYS4C) is an environmental advocacy group that was established in February 2019. in response to the international Fridays for Future and Youth Strike 4 Climate movements.</t>
+  </si>
+  <si>
+    <t>comics</t>
+  </si>
+  <si>
+    <t>The comic summarizes some basic facts about climate change and the history of international treaties on climate, but with some clever page</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecology clean future environment without pollution </t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>Australia, officially the Commonwealth of Australia, is a sovereign country comprising the mainland of the Australian continent, the island of Tasmania, and numerous smaller islands. With an area of 7,617,930 square kilometres Australia is the largest country by area in Oceania and the world's sixth-largest country. Australia is the oldest, flattest, and driest inhabited continent, with the least fertile soils. It is a megadiverse country, and its size gives it a wide variety of landscapes and climates, with deserts in the centre, tropical rainforests in the north-east, and mountain ranges in the south-east.</t>
+  </si>
+  <si>
+    <t>schoolstrike</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>Food is any substance consumed to provide nutritional support for an organism. Food is usually of plant, animal, or fungal origin, and contains essential nutrients, such as carbohydrates, fats, proteins, vitamins, or minerals. The substance is ingested by an organism and assimilated by the organism's cells to provide energy, maintain life, or stimulate growth. Different species of animals have different feeding behaviours that satisfy the needs of their unique metabolisms, often evolved to fill a specific ecological niche within specific geographical contexts.</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Technology is the result of accumulated knowledge and application of skills, methods, and processes used in industrial production and scientific research. Technology is embedded in the operation of all machines, with or without detailed knowledge of their function, for the intended purpose of an organization. The technologies of society consist of what is known as systems. Systems operate by obtaining an input, altering this input through what is known as a process, and then producing an outcome that achieves the intended purpose of the system</t>
+  </si>
+  <si>
+    <t>sustainable</t>
+  </si>
+  <si>
+    <t>Sustainability is a societal goal that broadly aims for humans to safely co-exist on planet Earth over a long time. Specific definitions of sustainability are difficult to agree on and therefore vary in the literature and over time. Sustainability is commonly described along the lines of three dimensions (also called pillars): environmental, economic and social. This concept can be used to guide decisions at the global, national and at the individual level (e.g. sustainable living).</t>
+  </si>
+  <si>
+    <t>greenenergy</t>
+  </si>
+  <si>
+    <t>Energy is sustainable if it "meets the needs of the present without compromising the ability of future generations to meet their own needs".  Most definitions of sustainable energy include considerations of environmental aspects such as greenhouse gas emissions and social and economic aspects such as energy poverty. Renewable energy sources such as wind, hydroelectric power, solar, and geothermal energy are generally far more sustainable than fossil fuel sources. However, some renewable energy projects, such as the clearing of forests to produce biofuels, can cause severe environmental damage.</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>Life is a characteristic that distinguishes physical entities that have biological processes, such as signaling and self-sustaining processes, from those that do not, either because such functions have ceased (they have died) or because they never had such functions and are classified as inanimate. Various forms of life exist, such as plants, animals, fungi, protists, archaea, and bacteria. Biology is the science that studies life.</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>The weekdays and weekend are the complementary parts of the week devoted to labour and rest, respectively. The legal weekdays (British English), or workweek (American English), is the part of the seven-day week devoted to working. In most of the world, the workweek is from Monday to Friday and the weekend is Saturday and Sunday. A weekday or workday is any day of the working week. Other institutions often follow this pattern, such as places of education</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>An electric vehicle (EV) is a vehicle that uses one or more electric motors for propulsion. It can be powered by a collector system, with electricity from extravehicular sources, or it can be powered autonomously by a battery (sometimes charged by solar panels, or by converting fuel to electricity using fuel cells or a generator). EVs include, but are not limited to, road and rail vehicles, surface and underwater vessels, electric aircraft and electric spacecraft.</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>Coal is a combustible black or brownish-black sedimentary rock, formed as rock strata called coal seams. Coal is mostly carbon with variable amounts of other elements, chiefly hydrogen, sulfur, oxygen, and nitrogen.
+Coal is formed when dead plant matter decays into peat and is converted into coal by the heat and pressure of deep burial over millions of years. Vast deposits of coal originate in former wetlands—called coal forests—that covered much of the Earth's tropical land areas during the late Carboniferous (Pennsylvanian) and Permian times. However, many significant coal deposits are younger than this and originate from the Mesozoic and Cenozoic eras.</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany (German: Deutschland, pronounced by formality the Federal Republic of Germany, is a country in Central Europe. It is the second most populous country in Europe after Russia, and the most populous member state of the European Union. Germany is situated between the Baltic and North seas to the north, and the Alps to the south; it covers an area of 357,022 square kilometres (137,847 sq mi), with a population of over 83 million within its 16 constituent states. Germany borders Denmark to the north, Poland and the Czech Republic to the east, </t>
+  </si>
+  <si>
+    <t>climatebreakdown</t>
+  </si>
+  <si>
+    <t>Climate breakdown is the most recent term for what was previously known as global warming (that the average temperature of the earth is continuing to rise) or climate change (that the global climate has changed in an unprecedented manner).</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>The United States of America (U.S.A. or USA), commonly known as the United States (U.S. or US) or America, is a transcontinental country primarily located in North America. It consists of 50 states, a federal district, five major unincorporated territories, 326 Indian reservations, and nine minor outlying islands. It is the third-largest country by both land and total area.</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>Electricity is the set of physical phenomena associated with the presence and motion of matter that has a property of electric charge. Electricity is related to magnetism, both being part of the phenomenon of electromagnetism, as described by Maxwell's equations. Various common phenomena are related to electricity, including lightning, static electricity, electric heating, electric discharges and many others.</t>
+  </si>
+  <si>
+    <t>luisaneubauer</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>Publicity and widespread organising began after Swedish pupil Greta Thunberg staged a protest in August 2018 outside of the Swedish Riksdag (parliament), holding a sign that read "Skolstrejk för klimatet" ("School strike for climate").A global strike on 15 March 2019 gathered more than one million strikers in 2,200 strikes organised in 125 countries.</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>very pleasant</t>
+  </si>
+  <si>
+    <t>stayhome</t>
+  </si>
+  <si>
+    <t>In public health, social distancing, also called physical distancing, is a set of non-pharmaceutical interventions or measures intended to prevent the spread of a contagious disease by maintaining a physical distance between people and reducing the number of times people come into close contact with each other. It usually involves keeping a certain distance from others (the distance specified differs from country to country and can change with time) and avoiding gathering together in large groups.By minimising the probability that a given uninfected person will come into physical contact with an infected person, the disease transmission can be suppressed, resulting in fewer deaths.</t>
+  </si>
+  <si>
+    <t>plantbased</t>
+  </si>
+  <si>
+    <t>A plant-based diet consists of all minimally processed fruits, vegetables, whole grains, legumes, nuts and seeds, herbs, and spices and excludes all animal products, including red meat, poultry, fish, eggs, and dairy products.</t>
+  </si>
+  <si>
+    <t>withdrawthecap</t>
+  </si>
+  <si>
+    <t>madrid</t>
+  </si>
+  <si>
+    <t>is the capital and most populous city of Spain. The city has almost 3.4 million inhabitants and a metropolitan area population of approximately 6.7 million. It is the second-largest city in the European Union</t>
+  </si>
+  <si>
+    <t>he hashtag was popularized by teenage activist Greta Thunberg, and quickly evolved into a (digital) movement calling attention to the upcoming CAP reform vote taking place in the European Parliament. Every seven years the CAP faces a new reform, and this proposed reform was met with outrage - as many felt that the policy was unambitious in its environmental targets and overall sustainability and equitability efforts.</t>
+  </si>
+  <si>
+    <t>ecocide</t>
+  </si>
+  <si>
+    <t>Ecocide is human impact on the environment causing mass destruction to that environment. 
+Ten nations have codified ecocide as a crime. Activities that might constitute ecocide in these nations include substantially damaging or destroying ecosystems, or harming the health and well-being of a species, including humans. It has been proposed that ecocide be a crime punishable by the International Criminal Court.</t>
+  </si>
+  <si>
+    <t>greenpeace</t>
+  </si>
+  <si>
+    <t>Greenpeace is an independent global campaigning network. The network comprises 26 independent national/regional organisations in over 55 countries across Europe, the Americas, Africa, Asia and the Pacific, as well as a co-ordinating body, Greenpeace International, based in Amsterdam, the Netherlands. Greenpeace was founded in Canada in 1971 by Irving and Dorothy Stowe, immigrant environmental activists from the United States. Greenpeace states its goal is to "ensure the ability of the Earth to nurture life in all its diversity" and focuses its campaigning on worldwide issues such as climate change, deforestation, overfishing, commercial whaling, genetic engineering, and anti-nuclear issues. It uses direct action, lobbying, research, and ecotage to achieve its goals. The global network does</t>
+  </si>
+  <si>
+    <t>fridayfun</t>
+  </si>
+  <si>
+    <t>have fun on the day when strikes are carried out</t>
+  </si>
+  <si>
+    <t>sudbury</t>
+  </si>
+  <si>
+    <t>A city of southern Ontario, Canada, north of Georgian Bay. It grew as a lumbering and mining center.</t>
+  </si>
+  <si>
+    <t>keepitintheground</t>
+  </si>
+  <si>
+    <t>In other words, our climate can't afford any new fossil fuel development. That's why, since 2015, the Center has campaigned to keep it in the ground — to stop the expansion of oil, gas, and coal development on public lands and oceans by halting new leasing and permitting.</t>
+  </si>
+  <si>
+    <t>weekendvibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have positive feelings on the weekend </t>
+  </si>
+  <si>
+    <t>globalclimatejustice</t>
+  </si>
+  <si>
+    <t>matters because it forces people to work with and protect communities bearing the brunt of devastating hurricanes and accompanying flooding, disproportionate exposures to toxic substances, chronic flooding, premature deaths, chronic illnesses and more.</t>
+  </si>
+  <si>
+    <t>sosamazonia</t>
+  </si>
+  <si>
+    <t>help amazonia during the forest fire</t>
+  </si>
+  <si>
+    <t>by2020weriseup</t>
+  </si>
+  <si>
+    <t>The By2020WeRiseUp campaign has come to a close at the end of 2020.
+Thank you to each and everyone who has been a part of this campaign all over Europe.
+Whether you were attending one of the seven European strategy conferences, taking action on the ground, or doing reproductive background work - it couldn’t have been done without you. Love and rage to all of you! Read about the ending of the campaign here.</t>
+  </si>
+  <si>
+    <t>polluters out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+cut off from the economic sector companies that pollute without respecting any rules and without repairing the damage done</t>
+  </si>
+  <si>
+    <t>tempolimit</t>
+  </si>
+  <si>
+    <t>the time to manage to save the way is limited and you have to act quickly before it is too late</t>
+  </si>
+  <si>
+    <t>climatemarch</t>
+  </si>
+  <si>
+    <t>carry out a climate march in which you try to raise awareness about this important issue</t>
+  </si>
+  <si>
+    <t>tellthetruth</t>
+  </si>
+  <si>
+    <t>used to say that one is being honest and admitting something To tell the truth, I liked her first book better,To tell you the truth, I don't remember when I saw her last.</t>
+  </si>
+  <si>
+    <t>worldenvironmentday</t>
+  </si>
+  <si>
+    <t>World Environment Day (WED) is celebrated annually on 5 June and is the United Nations' principal vehicle for encouraging awareness and action for the protection of the environment.</t>
+  </si>
+  <si>
+    <t>youth2030</t>
+  </si>
+  <si>
+    <t>An ambitious system-wide strategy to guide the United Nations and its partners to work meaningfully with and for young people around the world.</t>
+  </si>
+  <si>
+    <t>wearethechange</t>
+  </si>
+  <si>
+    <t>we are the only ones who can make the change and do something to make things better</t>
+  </si>
+  <si>
+    <t>earthovershootday</t>
+  </si>
+  <si>
+    <t>Earth Overshoot Day marks the date when humanity has used all the biological resources that Earth regenerates during the entire year.</t>
+  </si>
+  <si>
+    <t>deepstrike</t>
+  </si>
+  <si>
+    <t>Deep Strike is used to denote the way certain troops can arrive in battle; it can be achieved via various means</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>it is really urgent to do something about the plant and slow down the catastrophes brought about by climate change</t>
+  </si>
+  <si>
+    <t>s the second largest city and municipality in the Netherlands. It is in the province of South Holland, at the mouth of the Nieuwe Maas channel leading into the Rhine–Meuse–Scheldt delta at the North Sea. Its history goes back to 1270, when a dam was constructed in the Rotte. In 1340, Rotterdam was granted city rights by William IV, Count of Holland. The Rotterdam–The Hague metropolitan area, with a population of approximately 2.7 million, is the 10th-largest in the European Union and the most populous in the country</t>
+  </si>
+  <si>
+    <t>rotterdam</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>trains</t>
+  </si>
+  <si>
+    <t>marinelife</t>
+  </si>
+  <si>
+    <t>adventadvocacy</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>factfriday</t>
+  </si>
+  <si>
+    <t>mountainsnotmines</t>
+  </si>
+  <si>
+    <t>theresistance</t>
+  </si>
+  <si>
+    <t>saveforest</t>
+  </si>
+  <si>
+    <t>loveourearth</t>
+  </si>
+  <si>
+    <t>plasticbagfreeday</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>november1st</t>
+  </si>
+  <si>
+    <t>climatesolutions</t>
+  </si>
+  <si>
+    <t>disinformation</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>stopcoalplant</t>
+  </si>
+  <si>
+    <t>morningglory</t>
+  </si>
+  <si>
+    <t>facepalm</t>
+  </si>
+  <si>
+    <t>lush</t>
+  </si>
+  <si>
+    <t>cop26strike</t>
+  </si>
+  <si>
+    <t>agenda2030</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>soscolombia</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>sicily</t>
+  </si>
+  <si>
+    <t>the people with common interests living in a particular area broadly : the area itself the problems of a large community</t>
+  </si>
+  <si>
+    <t>a domesticated carnivorous mammal that typically has a long snout, an acute sense of smell, non-retractable claws, and a barking, howling, or whining voice</t>
+  </si>
+  <si>
+    <t>teach (a person or animal) a particular skill or type of behaviour through practice and instruction over a period of time.</t>
+  </si>
+  <si>
+    <t>all living things that are found in the sea
+the effects of pollution on marine life</t>
+  </si>
+  <si>
+    <t>Advent Advocacy are here to support you. They work on your behalf to support you and act as your advocates if there's anything that you need help with</t>
+  </si>
+  <si>
+    <t>he highest legislature, consisting of the Sovereign, the House of Lords, and the House of Commons.</t>
+  </si>
+  <si>
+    <t>a warm-blooded egg-laying vertebrate animal distinguished by the possession of feathers, wings, a beak, and typically by being able to fly.</t>
+  </si>
+  <si>
+    <t>That first meal of the day is more commonly known as breakfast. If you divide this compound word into two parts, you'll see it's made up of “break" and “fast." To fast means to go without food. So “breakfast" means to break the fast you've been observing since you went to sleep the night before</t>
+  </si>
+  <si>
+    <t>The 2030 Agenda is a continuation of the UN Millennium Development Goals (2000-2015) which were in their day the first international consensus on facing global problems such as the eradication of extreme poverty and hunger, and to promote improvements in access to education. Although the targets were not fully achieved, they nevertheless provided the basis for significant progress which, in 2015, was extended through the 2030 Agenda and its respective SDGs.</t>
+  </si>
+  <si>
+    <t>tell the events that occurred during the Friday strikes</t>
+  </si>
+  <si>
+    <t>resistance are the people acting to do something about climate change</t>
+  </si>
+  <si>
+    <t>Take action to stop open pit coal mining in the Eastern Slopes. A collection of resources for understanding the impact of open-pit coal mining in Alberta.</t>
+  </si>
+  <si>
+    <t>saving forests from deforestation, fires and pollution</t>
+  </si>
+  <si>
+    <t>love our land because this is the only one we have</t>
+  </si>
+  <si>
+    <t>The main goal of the day is to raise awareness of the growing harm that the use of this non-biodegradable substance is causing to the environment</t>
+  </si>
+  <si>
+    <t>hristian feast day honoring all the saints</t>
+  </si>
+  <si>
+    <t>finding solutions to climate change</t>
+  </si>
+  <si>
+    <t>false information which is intended to mislead, especially propaganda issued by a government organization to a rival power or the media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop the use of coal plants that are scattered around the world do not use coal as ore </t>
+  </si>
+  <si>
+    <t>Morning glory, as slang for the sort of erection that a man gets while still hitting the snooze button, is recorded in the 1980s. It also goes by morning wood and the alliterative breakfast boner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a gesture in which the palm of one's hand is brought to one's face as an expression of dismay, exasperation, embarrassment, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strike to be carried out during the event </t>
+  </si>
+  <si>
+    <t xml:space="preserve">growing vigorously especially with luxuriant foliage </t>
+  </si>
+  <si>
+    <t>the masks were used because of covid19 to prevent the spread of infection. they turn out to be polluting</t>
+  </si>
+  <si>
+    <t>help colombia</t>
+  </si>
+  <si>
+    <t>to become warm or hot</t>
+  </si>
+  <si>
+    <t>an aspect or quality (such as resemblance) that connects two or more things or parts as being or belonging or working together or as being of the same kind the referring by a legal fiction of an act to a prior date as the time of its taking effect —usually used with back</t>
+  </si>
+  <si>
+    <t>is the capital[8] and largest city of Japan. Its metropolitan area is the most populous in the world Originally a fishing village named Edo, the city became a prominent political center in 1603, when it became the seat of the Tokugawa shogunate. By the mid-18th century, Edo was one of the most populous cities in the world at over one million. Following the end of the shogunate in 1868, the imperial capital in Kyoto was moved to the city, which was renamed Tokyo (literally "eastern capital"). Tokyo was devastated by the 1923 Great Kantō earthquake, and again by Allied bombing raids during World War II. Beginning in the 1950s, the city underwent rapid reconstruction and expansion, going on to lead Japan's post-war economic recovery. Since 1943, the Tokyo Metropolitan Government has administered the prefecture's 23 special wards (formerly Tokyo City), various bed towns and suburbs in the western area, and two outlying island chains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the season between summer and winter comprising in the northern hemisphere usually the months of September, October, and November or as reckoned astronomically extending from the September equinox to the December solstice</t>
+  </si>
+  <si>
+    <t>island of southern Italy in the Mediterranean constituting a region with Palermo as its capital</t>
+  </si>
+  <si>
+    <t>motivation</t>
+  </si>
+  <si>
+    <t>the act or process of motivating</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most productive of good : offering or producing the greatest advantage, utility, or satisfaction</t>
+  </si>
+  <si>
+    <t>nonewcoal</t>
+  </si>
+  <si>
+    <t>avoid finding a coal substitute that is similar to it and pollutes</t>
+  </si>
+  <si>
+    <t>gasstop</t>
+  </si>
+  <si>
+    <t>socialchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop using the gas </t>
+  </si>
+  <si>
+    <t>make social change to improve the world</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>an individual human  a man belonging to a particular category (as by birth, residence, membership, or occupation) —usually used in combination</t>
+  </si>
+  <si>
+    <t>seattle</t>
+  </si>
+  <si>
+    <t>is a seaport city on the West Coast of the United States. It is the seat of King County, Washington. is the largest city in both the state of Washington and the Pacific Northwest region of North America. The Seattle metropolitan area's population is 4.02 million, making it the 15th-largest in the United States. Its growth rate of 21.1% between 2010 and 2020 makes it one of the nation's fastest-growing large cities.</t>
+  </si>
+  <si>
+    <t>pisa</t>
+  </si>
+  <si>
+    <t>is a city and comune in Tuscany, central Italy, straddling the Arno just before it empties into the Ligurian Sea. It is the capital city of the Province of Pisa. Although Pisa is known worldwide for its leaning tower, the city contains more than twenty other historic churches, several medieval palaces, and bridges across the Arno. Much of the city's architecture was financed from its history as one of the Italian maritime republics.</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>a device made usually of two movable rails and necessary connections and designed to turn a locomotive or train from one track to another</t>
+  </si>
+  <si>
+    <t>peopleoftheplanet</t>
+  </si>
+  <si>
+    <t>People, regarded as the inhabitants of this world, as opposed to the spiritual or supernatural realm; human beings.</t>
+  </si>
+  <si>
+    <t>climatestrikecanceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event cancelled </t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>water falling in drops condensed from vapor in the atmosphere</t>
+  </si>
+  <si>
+    <t>precop26</t>
+  </si>
+  <si>
+    <t>event carried out before the start of the main event concerning the holding of cop2</t>
+  </si>
+  <si>
+    <t>hitzewelle</t>
+  </si>
+  <si>
+    <t>Eine Hitzewelle ist in Meteorologie und Klimatologie eine ungew”hnlich lange Phase aufeinander folgender ungew”hnlich heiáer Tage. Etwas abgeschw„cht spricht man auch von W„rmewelle fr Phasen abnorm hoher Temperaturen. Hitzewellen sind Extremwetterereignisse, die die menschliche Gesundheit, die ™kosysteme und die Infrastruktur sch„digen k”nnen.</t>
+  </si>
+  <si>
+    <t>laufzeitverl„ngerung</t>
+  </si>
+  <si>
+    <t>Eine Laufzeitverl„ngerung deutscher Kernkraftwerke wurde gefordert nachdem im Jahr 2000 erstmals ein ?Atomausstieg? vereinbart worden war. Im Herbst 2010 wurden die Reststrommenge verl„ngert, aber angesichts der Nuklearkatastrophe von Fukushima wurden im Sommer einige „ltere Kernkraftwerke stillgelegt, die Abschaltung der modernen Reaktoren wurde bis Ende 2022 festgeschrieben.</t>
+  </si>
+  <si>
+    <t>akw</t>
+  </si>
+  <si>
+    <t>Ein Kernkraftwerk (KKW), auch Atomkraftwerk (AKW), ist ein W„rmekraftwerk zur Gewinnung elektrischer Energie aus Kernenergie durch kontrollierte Kernspaltung (Fission).</t>
+  </si>
+  <si>
+    <t>ltzerathbleibt</t>
+  </si>
+  <si>
+    <t>Ltzerath ist ein Weiler der Stadt Erkelenz in Nordrhein-Westfalen. Der Energieversorgungskonzern RWE plant, Ltzerath vollst„ndig abzureiáen, um den Tagebau Garzweiler auszudehnen, wie schon den unmittelbar sd”stlich gelegenen Nachbarort Immerath. Die Umsiedlung des Ortes begann 2006 und h„tte nach vorherigen Pl„nen des Unternehmens im September 2021 abgeschlossen sein sollen, wogegen sich bis heute Widerstand regt. In Anlehnung an das Wort Hambi, das sich im Hinblick auf die Protestaktionen im Hambacher Forst gebildet hatte, entstand unter dort agierenden Aktivisten fr den Ort der Name ?Ltzi?. Seit 2021 wird in der Bundes- und Landespolitik vermehrt ber den Erhalt des Dorfes diskutiert.</t>
+  </si>
+  <si>
+    <t>noafd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die Alternative fr Deutschland (Kurzbezeichnung AfD) ist eine rechtspopulistische und rechtsextreme politische Partei in Deutschland.
+Sie wurde 2013 als EU-skeptische und rechtsliberale Partei gegrndet. Im Juli 2015 spaltete sich unter Bernd Lucke ein wirtschaftsliberaler Flgel ab und formierte sich als Partei Allianz fr Fortschritt und Aufbruch (ALFA), w„hrend sich der berwiegende Rest der Partei unter Frauke Petry und J”rg Meuthen deutlich nach rechts entwickelte.</t>
+  </si>
+  <si>
+    <t>entkriminalisierungsofort</t>
+  </si>
+  <si>
+    <t>Entkriminalisierung ist ein in der rechtspolitischen Diskussion und der Strafrechtsreform gebrauchter Begriff. Entkriminalisierung setzt logischerweise voraus, dass eine Verhaltensweise kriminalisiert ist. Der Vorgang der Kriminalisierung stellt das Gegenstck zur Entkriminalisierung dar. Die Forderung nach Entkriminalisierung geht dahin, bestimmte Verhaltensweisen nicht mehr mit Strafe (und der damit verbundenen besonderen Missbilligung durch die Rechtsgemeinschaft) zu belegen</t>
+  </si>
+  <si>
+    <t>karlsruhe</t>
+  </si>
+  <si>
+    <t>Karlsruhe (Aussprache [?ka??ls??u??], , lokal sdfr„nkisch Kallsruh) ist mit 308.436 Einwohnern (31. Dezember 2020) nach der Landeshauptstadt Stuttgart und Mannheim die drittgr”áte Stadt des Landes Baden-Wrttemberg. Sie ist Verwaltungssitz des Regierungsbezirks Karlsruhe und des Landkreises Karlsruhe und bildet selbst einen Stadtkreis (kreisfreie Stadt). Die Stadt ist Oberzentrum fr die Region Mittlerer Oberrhein und l„nderbergreifend fr Teile der Sdpfalz</t>
+  </si>
+  <si>
+    <t>scholz</t>
+  </si>
+  <si>
+    <t>Olaf Scholz (* 14. Juni 1958 in Osnabrck) ist ein deutscher Politiker (SPD). Er ist seit dem 8. Dezember 2021 der neunte Bundeskanzler der Bundesrepublik Deutschland</t>
+  </si>
+  <si>
+    <t>bundeskanzler</t>
+  </si>
+  <si>
+    <t>Bundeskanzler (Deutschland), deutscher Regierungschef</t>
+  </si>
+  <si>
+    <t>hitze</t>
+  </si>
+  <si>
+    <t>Den Begriff Hitze verwendet man fr eine als ungew”hnlich hoch empfundene Temperatur</t>
+  </si>
+  <si>
+    <t>klimaschutz</t>
+  </si>
+  <si>
+    <t>Klimaschutz ist der Sammelbegriff fr Maánahmen, die der durch den Menschen verursachten globalen Erw„rmung entgegenwirken und m”gliche Folgen der globalen Erw„rmung abmildern (Mitigation) oder verhindern sollen</t>
+  </si>
+  <si>
+    <t>passivhaus</t>
+  </si>
+  <si>
+    <t>Unter einem Passivhaus wird ein Geb„ude verstanden, das aufgrund seiner hohen W„rmed„mmung und dem Funktionsprinzip, mittels W„rmetauscher Lftungsw„rmeverluste signifikant zu reduzieren, in der Regel keine klassische, wassergefhrte Geb„udeheizung ben”tigt</t>
+  </si>
+  <si>
+    <t>kernkraft</t>
+  </si>
+  <si>
+    <t>Kernkraft als physikalischer Begriff bezeichnet: die elektrische Energieerzeugung durch Kernreaktionen, siehe Kernenergie die Restwechselwirkung der starken Wechselwirkung als schwache Kernkraft die schwache WechselwirkungSiehe auch: Kernkraft 400, Lied des deutschen Electronic-Projekts Zombie Nation (1999)</t>
+  </si>
+  <si>
+    <t>”pnv</t>
+  </si>
+  <si>
+    <t>Als ”ffentlicher Personennahverkehr (™PNV) wird der Personenverkehr als Teil des ”ffentlichen Verkehrs (™V) im Rahmen der Grundversorgung auf Straáe, Schiene, Wasser und mittels Luftseilbahn bezeichnet. Trotz des Begriffs ?”ffentlicher Personennahverkehr? ist dieser nicht nur im Nahverkehr, sondern teils auch im Regionalverkehr anzutreffen. Der Begriff grenzt sich jeweils ab vom Individualverkehr (nicht ”ffentlich), Gterverkehr (nicht Personen) und Fernverkehr (nicht Nahverkehr)</t>
+  </si>
+  <si>
+    <t>magdeburg</t>
+  </si>
+  <si>
+    <t>Magdeburg ([?makd??b??k] , regiolektal auch [?maxd?b???‡], niederdeutsch Meideborg [?ma?deb???x]) ist die Hauptstadt des Landes Sachsen-Anhalt. Die Stadt liegt an der Elbe und ist eines der drei Oberzentren des Landes</t>
+  </si>
+  <si>
+    <t>habek</t>
+  </si>
+  <si>
+    <t>Robert Habeck (* 2. September 1969 in Lbeck) ist ein deutscher Politiker (Bndnis 90/Die Grnen) und Schriftsteller. Er ist seit dem 8. Dezember 2021 der Stellvertreter des Bundeskanzlers sowie Bundesminister fr Wirtschaft und Klimaschutz im Kabinett Scholz</t>
+  </si>
+  <si>
+    <t>wiedereinstieg</t>
+  </si>
+  <si>
+    <t>Ein beruflicher Wiedereinstieg ist eine Wiederaufnahme einer Erwerbst„tigkeit nach einer beruflichen Auszeit. Der Anlass fr die Auszeit kann dabei etwa eine Krankheit, eine Erziehungsphase oder Elternzeit, eine Phase von Arbeitslosigkeit oder ein Sabbaticals gewesen sein. Entsprechend kann es sein, dass w„hrend der Dauer der beruflichen Auszeit Krankengeld, Elterngeld oder Arbeitslosengeld bezogen wurde</t>
+  </si>
+  <si>
+    <t>handwerk</t>
+  </si>
+  <si>
+    <t>Als Handwerk (von mittelhochdeutsch hant-werc, eine Lehnbersetzung zu lateinisch opus manuum und altgriechisch ?????????? cheirurg¡a ?Handarbeit?) werden zahlreiche gewerbliche T„tigkeiten bezeichnet, die Produkte meist auf Bestellung fertigen oder Dienstleistungen auf Nachfrage erbringen</t>
+  </si>
+  <si>
+    <t>klimakatastrophe</t>
+  </si>
+  <si>
+    <t>Klimakatastrophe ist der Begriff fr einen Klimawandel mit weltweiten katastrophalen Wirkungen. Dazu geh”rt auch eine unkontrollierte Globale Erw„rmung, etwa als Treibhaus-Erde-Szenario. Besonders in den Massenmedien verwendet man den Begriff oft als Deutungsrahmen fr befrchtete Folgen des menschengemachten Klimawandels</t>
+  </si>
+  <si>
+    <t>klimawandel</t>
+  </si>
+  <si>
+    <t>Klimawandel, auch Klimaver„nderung, Klima„nderung oder Klimawechsel, ist eine weltweit auftretende Ver„nderung des Klimas auf der Erde oder erd„hnlichen Planeten oder Monden, die eine Atmosph„re besitzen. Die mit einem Klimawandel verbundene Abkhlung oder Erw„rmung kann ber unterschiedlich lange Zeitr„ume erfolgen</t>
+  </si>
+  <si>
+    <t>klimarat</t>
+  </si>
+  <si>
+    <t>Klimarat steht fr:Expertenrat fr Klimafragen, ein Gremium der deutschen Bundesregierung Committee on Climate Change in Groábritannien (Vereinigtes K”nigreich) Hoher Rat fr das Klima, ein franz”sisches Gremium Intergovernmental Panel on Climate Change (IPCC), im Deutschen oft als Weltklimarat bezeichnet Europ„ische Umweltagentur#Wissenschaftlicher Beirat fr Klimawandel, ein im Rahmen des Europ„ischen Klimagesetzes eingerichteter Beirat an der EUA Klimarat der Brgerinnen und Brger in ™sterreich, ein von der Regierung eingesetztes Brgerforum Brgerrat Klima ? eine Brgerversammlung zur deutschen Klimapolitik</t>
+  </si>
+  <si>
+    <t>klima</t>
+  </si>
+  <si>
+    <t>Das Klima ist der mit meteorologischen Methoden ermittelte Durchschnitt der dynamischen Prozesse in der Erdatmosph„re: als Zusammenfassung der Wettererscheinungen kleinr„umiger ™rtlichkeiten (Meso- beziehungsweise Regionalklima) oder bezogen auf kontinentale Dimensionen (Makroklima), einschlieálich aller Schwankungen im Jahresverlauf und basierend auf einer Vielzahl von Klimaelementen</t>
+  </si>
+  <si>
+    <t>rassismus</t>
+  </si>
+  <si>
+    <t>Rassismus ist eine Ideologie, nach der Menschen aufgrund „uáerlicher Merkmale oder negativer Fremdzuschreibungen, die bertrieben, naturalisiert oder stereotypisiert werden, als ?Rasse?, ?Volk? oder ?Ethnie? kategorisiert und ausgegrenzt werden. Bis ins 20. Jahrhundert wurden dazu vor allem aufgrund biologischer Merkmale (Hautfarbe, Formen von Gesicht und K”rper usw.) angebliche ?Menschenrassen? in heute obsoleten Rassentheorien konstruiert, um damit etwa Sklaverei, Assimilationspolitik, Ethno- oder Genozid zu rechtfertigen</t>
+  </si>
+  <si>
+    <t>kriegsverbrecher</t>
+  </si>
+  <si>
+    <t>Kriegsverbrechen sind schwere Verst”áe von Angeh”rigen eines kriegfhrenden Staates gegen die Regeln des in internationalen oder nichtinternationalen bewaffneten Konflikten anwendbaren V”lkerrechts, deren Strafbarkeit sich unmittelbar aus dem V”lkerrecht ergibt. Kriegsverbrechen z„hlen zu den Kernverbrechen des V”lkerstrafrechts und unterfallen dem Weltrechtsprinzip</t>
+  </si>
+  <si>
+    <t>putin</t>
+  </si>
+  <si>
+    <t>Wladimir Wladimirowitsch Putin (russisch  Vladimir Vladimirovi? Putin [v???d?im??r v???d?im??r?v??t? ?put??n]; * 7. Oktober 1952 in Leningrad, Russische SFSR, Sowjetunion) ist ein russischer Politiker. Er ist seit dem 7. Mai 2000 (mit Unterbrechung von 2008 bis 2012) Pr„sident der Russischen F”deration. Von August 1999 bis Mai 2000 sowie von Mai 2008 bis zu seiner Wiederwahl als Staatspr„sident 2012 war Putin Ministerpr„sident Russlands. Von Dezember 1999 bis zu seiner Wahl im Mai 2000 war er als kommissarischer Staatspr„sident im Amt. In den Jahren 1975 bis 1990 war er Mitarbeiter des KGB</t>
+  </si>
+  <si>
+    <t>polizei</t>
+  </si>
+  <si>
+    <t>Die Polizei ?Staatsverwaltung?, wie griech "Politik" ,die staatl. Angelegenheiten betreffendes?) ist ein Exekutivorgan eines Staates. Die Polizeibeh”rden, die Polizeibeamten, die Polizeigewalt und im bertragenen Sinn auch ein Polizeigeb„ude werden als ?Polizei? bezeichnet</t>
+  </si>
+  <si>
+    <t>zivilerungehorsam</t>
+  </si>
+  <si>
+    <t>Ziviler Ungehorsam (aus lateinisch civilis ?brgerlich?; deshalb auch brgerlicher Ungehorsam) ist eine Form politischer Partizipation, deren Wurzeln bis in die Antike zurckreichen. Durch einen symbolischen, aus Gewissensgrnden vollzogenen und damit bewussten Verstoá gegen rechtliche Normen zielt der handelnde Staatsbrger mit einem Akt zivilen Ungehorsams auf die Beseitigung einer Unrechtssituation und betont damit sein moralisches Recht auf Partizipation. Die Normen k”nnen sich durch Gesetze, Pflichten oder auch Befehle eines Staates oder einer Einheit in einem staatlichen Gefge manifestieren</t>
+  </si>
+  <si>
+    <t>letztegeneration</t>
+  </si>
+  <si>
+    <t>Letzte Generation ist ein Bndnis von Aktivisten aus der Umweltschutzbewegung mit dem erkl„rten Ziel, durch Mittel des zivilen Ungehorsams Maánahmen der deutschen und der ”sterreichischen Bundesregierung gegen die Klimakrise zu erzwingen</t>
+  </si>
+  <si>
+    <t>klimacamp</t>
+  </si>
+  <si>
+    <t>Klimacamps sind Zeltlager, deren Teilnehmer sich gegen den menschengemachten Klimawandel einsetzen. Sie finden oft an zentralen Orten gr”áer St„dte oder an Orten der Verbrennung fossiler Brennstoffe (z. B. Kraftwerken, Flugh„fen) statt</t>
+  </si>
+  <si>
+    <t>Die Extinction Rebellion (XR; deutsch ?Rebellion gegen das Aussterben?) ist eine Umweltschutzbewegung mit dem erkl„rten Ziel, durch Mittel des zivilen Ungehorsams Maánahmen von Regierungen gegen das Massenaussterben von Tieren, Pflanzen und Lebensr„umen sowie das m”gliche Aussterben der Menschheit als Folge der Klimakrise zu erzwingen</t>
+  </si>
+  <si>
+    <t>mnchen</t>
+  </si>
+  <si>
+    <t>Mnchen ist die Landeshauptstadt des Freistaates Bayern. Sie ist mit 1.488.202 Einwohnern (31. Dezember 2020) die bev”lkerungsreichste Stadt Bayerns, die drittgr”áte Gemeinde Deutschlands und mit 4790 Einwohnern pro Quadratkilometer die am dichtesten bev”lkerte Gemeinde Deutschlands. Die Stadt bildet das Zentrum der Metropolregion Mnchen (rund 6,12 Millionen Einwohner) und der Planungsregion Mnchen (2,93 Millionen Einwohner)</t>
+  </si>
+  <si>
+    <t>fdp</t>
+  </si>
+  <si>
+    <t>Die Freie Demokratische Partei (Kurzbezeichnung: FDP, von 1968 bis 2001 F.D.P.; Eigenbezeichnung: Freie Demokraten, bis 2015 Die Liberalen) ist eine liberale Partei in Deutschland, die im politischen Spektrum im Bereich Mitte bis Mitte-rechts eingeordnet wird.Die FDP war 1949 bis 1956, 1961 bis 1966, 1969 bis 1998, 2009 bis 2013 und ist seit 2021 als jeweils kleinerer Koalitionspartner an der Bundesregierung beteiligt (siehe Liste der deutschen Bundesregierungen). Von 1949 bis 2013 war die Partei durchgehend im Deutschen Bundestag vertreten, 2017 zog sie wieder als Fraktion der Freien Demokraten in den Bundestag ein</t>
+  </si>
+  <si>
+    <t>polizeigewalt</t>
+  </si>
+  <si>
+    <t>Der Begriff Polizeigewalt wird in der Kriminologie und den Medien verwendet, um k”rperliche und psychische Gewalt zu beschreiben, die von Polizisten ausgebt wird. Die Anwendung von Gewalt ist vom Gesetz nur unter bestimmten Voraussetzungen erlaubt und dann nur in einem verh„ltnism„áigen Ausmaá. Sind die Voraussetzungen gegeben und das richtige Ausmaá gewahrt, ist sie rechtm„áig, andernfalls rechtswidrig. F„lle von unrechtm„áiger Polizeigewalt werden auch Polizeibergriffe genannt</t>
+  </si>
+  <si>
+    <t>paulspiegelpreis</t>
+  </si>
+  <si>
+    <t>Der Paul-Spiegel-Preis fr Zivilcourage ist ein vom Zentralrat der Juden in Deutschland gestifteter Preis, der seit 2009 verliehen wird und mit 5000 Euro dotiert ist</t>
+  </si>
+  <si>
+    <t>notstromaggregat</t>
+  </si>
+  <si>
+    <t>Ein Stromerzeugungsaggregat (Stromerzeuger, Stromaggregat, Stromgenerator, Notstromaggregat, Netzersatzanlage oder landl„ufig Moppel) ist eine Einrichtung, die mittels vorhandener Ressourcen elektrische Energie bereitstellt, um insbesondere von Stromnetzen unabh„ngig zu sein</t>
+  </si>
+  <si>
+    <t>notstromaggregate</t>
+  </si>
+  <si>
+    <t>Ein Antriebsaggregat, meistens eine Verbrennungskraftmaschine (z. B. Diesel- oder Benzinmotor), und ein Generator, der mechanische Energie des Antriebs in elektrische Energie wandelt, bilden hierbei eine Einheit</t>
+  </si>
+  <si>
+    <t>ist eine deutsche Klimaschutzaktivistin</t>
+  </si>
+  <si>
+    <t>neubauer</t>
+  </si>
+  <si>
+    <t>Luisa-Marie Neubauer (* 21. April 1996 in Hamburg) ist eine deutsche Klimaschutzaktivistin. In Deutschland ist sie eine der Hauptorganisatorinnen des von Greta Thunberg inspirierten Schulstreiks Fridays for Future (?Klimastreik?). Sie tritt fr eine Klimapolitik ein, die mit dem šbereinkommen von Paris vereinbar ist, und wirbt fr einen Kohleausstieg Deutschlands bis 2030. Neubauer ist Mitglied von Bndnis 90/Die Grnen und Grner Jugend und engagiert sich in verschiedenen Nichtregierungsorganisationen</t>
+  </si>
+  <si>
+    <t>”ko</t>
+  </si>
+  <si>
+    <t>™ko steht fr: Kurzform von ™kologie (biologische Wechselbeziehungen), siehe ™kologie (Begriffskl„rung) eine gesetzlich geschtzte Vorsilbe fr Produkte aus ”kologischer Landwirtschaft umgangssprachliche Bezeichnung fr Anh„nger der UmweltbewegungSiehe auch: oikos (Haus- und Wirtschaftsgemeinschaft im antiken Griechenland) ™konomie (Begriffskl„rung) ™konomik (Begriffskl„rung), Bio (Begriffskl„rung)Liste aller Wikipedia-Artikel, deren Titel mit ™ko beginnt</t>
+  </si>
+  <si>
+    <t>kohlekraftwerken</t>
+  </si>
+  <si>
+    <t>Ein Kohlekraftwerk ist ein Dampfkraftwerk, in dem Kohle verbrannt wird, um elektrischen Strom zu erzeugen. Es gibt Kraftwerke fr Braunkohle und fr Steinkohle. Die Kraftwerkstypen sind speziell fr den jeweiligen Brennstoff mit seinen verfahrenstechnischen Eigenheiten, seinem Heizwert und seinen Ascheanteilen konzipiert</t>
+  </si>
+  <si>
+    <t>kernkraftausstieg</t>
+  </si>
+  <si>
+    <t>Als Atomausstieg, auch Kernkraftausstieg oder Atomverzicht, wird die politische Entscheidung eines Staats, den Betrieb von Kernkraftwerken einzustellen und auf Kernenergie zur Stromerzeugung zu verzichten, bezeichnet. Einen vollst„ndigen Ausstieg aus der Erzeugung von Atomenergie hat bisher Italien durchgefhrt, weitere Staaten wie Deutschland, Belgien und die Schweiz haben einen Atomausstieg angekndigt bzw. ihn in die Wege geleitet. ™sterreich nahm sein fertiggestelltes Kernkraftwerk Zwentendorf bereits 1978 nach einer Volksabstimmung nicht in Betrieb, weitere Staaten brachen zum Teil weit vorangeschrittene Atomprogramme ab</t>
+  </si>
+  <si>
+    <t>glastonbury</t>
+  </si>
+  <si>
+    <t>Glastonbury ist eine Kleinstadt in Somerset (England) im Vereinigten K”nigreich. Die Kleinstadt im Distrikt Mendip hat rund 8800 Einwohner. Sie ist aufgrund der Ruinen der Glastonbury Abbey und der Mythen und Legenden um den nahegelegenen Hgel Glastonbury Tor bekannt, derentwegen Glastonbury den Anspruch erhebt, das sagenhafte Avalon zu sein. Bedeutend ist auch die eisenzeitliche Pfahlbausiedlung, die von Arthur Bulleid  (1862?1951) und Harold St George Gray (1872?1963) ausgegraben wurde</t>
+  </si>
+  <si>
+    <t>verkehrswende</t>
+  </si>
+  <si>
+    <t>Als Verkehrswende, auch Mobilit„tswende, wird der gesellschaftliche, technologische und politische Prozess bezeichnet, Verkehr und Mobilit„t auf nachhaltige Energietr„ger, sanfte Mobilit„tsnutzung und eine Vernetzung verschiedener Formen des Individualverkehrs und des ”ffentlichen Personennahverkehrs umzustellen (-&gt; "Inter-" bzw. "Multimodaler Verkehr")</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen ([?n?rtra??nv?st?fa?l?n] , L„ndercode NW, gel„ufige Abkrzung NRW) ist eine parlamentarische Republik und ein teilsouver„ner Gliedstaat der Bundesrepublik Deutschland. Mit rund 17,9 Millionen Einwohnern ist es das bev”lkerungsreichste Land Deutschlands. Die Landeshauptstadt ist Dsseldorf, die einwohnerreichste Stadt ist K”ln. Die Bundesstadt Bonn ist heute Zweitregierungssitz der Bundesrepublik Deutschland</t>
+  </si>
+  <si>
+    <t>klimahysterie</t>
+  </si>
+  <si>
+    <t>Klimahysterie ist ein politisches Schlagwort fr eine emotionale Einstellung zum gegenw„rtigen Klimawandel, die von demjenigen, der das Wort gebraucht, als bertrieben empfunden wird. Es wurde von der deutschen sprachkritischen Aktion ?Unwort des Jahres? zum ?Unwort des Jahres 2019? gew„hlt</t>
+  </si>
+  <si>
+    <t>endegelaende</t>
+  </si>
+  <si>
+    <t>Ende Gel„nde ist nach eigenen Angaben ?ein europaweites Bndnis von Menschen aus vielen verschiedenen sozialen Bewegungen? der Anti-Atom- und Anti-Kohlekraft-Bewegung, das seit 2015 j„hrlich eine Groáaktion (2017 und 2019 zwei) in deutschen Braunkohlerevieren organisiert. Das Bundesamt fr Verfassungsschutz bezeichnet das Bndnis als ?linksextremistisch beeinflusst?</t>
+  </si>
+  <si>
+    <t>unten</t>
+  </si>
+  <si>
+    <t>Oben und unten sind einander entgegengesetzte relative Ortsangaben. Sie nehmen in der Regel Bezug auf die Richtung der Schwerebeschleunigung und die k”rperliche Lageorientierung des Menschen im Erdschwerefeld. Unten bezeichnet Stellen, die sich in Wirkrichtung der Gewichtskraft befinden; oben sind Orte in Richtung entgegen der Gewichtskraft. Das Begriffspaar dient zusammen mit links und rechts sowie vorne und hinten als relative Positions- und Richtungsbezeichnung der Orientierung im Raum</t>
+  </si>
+  <si>
+    <t>lindner</t>
+  </si>
+  <si>
+    <t>Christian Wolfgang Lindner (* 7. Januar 1979 in Wuppertal) ist ein deutscher Politiker (FDP). Er ist seit dem 7. Dezember 2013 Bundesvorsitzender der FDP und seit dem 8. Dezember 2021 Bundesminister der Finanzen im Kabinett Scholz</t>
+  </si>
+  <si>
+    <t>gaskraftwerke</t>
+  </si>
+  <si>
+    <t>Ein Gaskraftwerk ist ein Kraftwerk, welches als Prim„renergiequelle die chemische Energie aus der Verbrennung eines Brenngases nutzt. Mit Abstand am h„ufigsten wird Erdgas eingesetzt, daneben auch Biogas, Holzgas, Kohlegas, Kuppelgase u. a. Brenngas. Wird die Bezeichnung Gaskraftwerk ohne n„here Angabe verwendet, so handelt es sich in der Regel um Erdgas. Bei anderen Brenngasen wird die Art zumeist im Namen aufgefhrt (Biogaskraftwerk, Gichtgaskraftwerk etc.)</t>
+  </si>
+  <si>
+    <t>kohlekraftwerke</t>
+  </si>
+  <si>
+    <t>grne</t>
+  </si>
+  <si>
+    <t>Bndnis 90/Die Grnen (Kurzbezeichnung: Grne; auch als Bndnisgrne, B?90/Grne, B?90/Die Grnen oder Die Grnen bezeichnet) ist eine politische Partei in Deutschland. Ein inhaltlicher Schwerpunkt ist die Umweltpolitik. Leitgedanke ?grner Politik? ist ”kologische, ”konomische und soziale Nachhaltigkeit</t>
+  </si>
+  <si>
+    <t>diegrnen</t>
+  </si>
+  <si>
+    <t>In Westdeutschland und West-Berlin entstammt die am 12./13. Januar 1980 in Karlsruhe gegrndete Partei Die Grnen der Anti-Atomkraft- und Umweltbewegung, den Neuen Sozialen Bewegungen, der Friedensbewegung und der Neuen Linken der 1970er-Jahre. Bei der Bundestagswahl 1983 gelang den Grnen der Einzug in den Bundestag und von 1985 bis 1987 stellten sie in einer rot-grnen Koalition in Hessen mit Joschka Fischer erstmals einen Landesminister</t>
+  </si>
+  <si>
+    <t>Die Sozialdemokratische Partei Deutschlands (SPD) ist eine politische Partei in Deutschland. Als erste Vorl„ufer der Partei gelten der 1863 gegrndete Allgemeine Deutsche Arbeiterverein und die 1869 gegrndete Sozialdemokratische Arbeiterpartei, die sich 1875 zur Sozialistischen Arbeiterpartei Deutschlands zusammenschlossen. Ihren heutigen Namen gab sich die Partei 1890. Sie gilt als „lteste noch bestehende Partei Deutschlands</t>
+  </si>
+  <si>
+    <t>dwenteignen</t>
+  </si>
+  <si>
+    <t>Deutsche Wohnen &amp; Co. enteignen (kurz DWE) ist eine Brgerinitiative in Berlin, die einen erfolgreichen Volksentscheid ber die Enteignung und Vergesellschaftung privater Wohnungsunternehmen erreicht hat. Dabei sollen die enteigneten Wohnungen in eine Anstalt des ”ffentlichen Rechts berfhrt werden. Dies betr„fe 243.000 der rund 1,5 Millionen Mietwohnungen in Berlin</t>
+  </si>
+  <si>
+    <t>bombendrohungen</t>
+  </si>
+  <si>
+    <t>Die Bombendrohung ist das beabsichtigte Bedrohen eines (meist ”ffentlichen) Geb„udes mittels einer tats„chlich oder angeblich platzierten Bombe</t>
+  </si>
+  <si>
+    <t>sek</t>
+  </si>
+  <si>
+    <t>Ein Spezialeinsatzkommando (SEK) ist eine Spezialeinheit der Polizei in Deutschland. Die Polizei jedes Bundeslandes verfgt ber mindestens ein SEK. Entsprechungen auf Ebene des Bundes sind die 1972 gegrndete GSG 9 der Bundespolizei sowie die 1994 ins Leben gerufene Zentrale Untersttzungsgruppe Zoll (ZUZ) der Zollverwaltung. Hervorgegangen sind die SEKs aus den Pr„zisionsschtzenkommandos. Das SEK Baden-Wrttemberg geh”rt als einziges SEK dem Atlas-Verbund europ„ischer Polizei-Spezialeinheiten an</t>
+  </si>
+  <si>
+    <t>haltdiefressebild</t>
+  </si>
+  <si>
+    <t>Halt die Fresse (kurz HDF) ist ein Online-Fernsehformat, das in regelm„áigen Abst„nden Lieder deutschsprachiger Rapper visualisiert. Die Sendung wird ber Aggro TV ausgestrahlt</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>Eine Pipeline (von englisch pipe = Rohr, R”hre, und von line = Linie, Leitung, Verbindung) ist eine Fernleitung fr den Rohrleitungstransport von Flssigkeiten (z. B. Wasser oder Erd”l) oder Gasen (z. B. Erdgas oder Kohlenstoffmonoxid), seltener auch Schl„mmen (z. B. Kohle oder Eisenerz mit Wasser vermengt)</t>
+  </si>
+  <si>
+    <t>terrorismus</t>
+  </si>
+  <si>
+    <t>Unter Terrorismus (abgeleitet ber ?Terror? von lateinisch terror ?Furcht?, ?Schrecken?) versteht man kriminelle Gewaltaktionen gegen Menschen oder Rechtssachen (wie Morde, Entfhrungen, Attentate und Sprengstoffanschl„ge), mit denen politische, religi”se oder ideologische Ziele erreicht werden sollen. Terrorismus ist das Ausben und Verbreiten von Terror</t>
+  </si>
+  <si>
+    <t>demokratie</t>
+  </si>
+  <si>
+    <t>Der Begriff Demokratie wurde im 16. Jhd. entlehnt von lateinisch democratia, abstammend von altgriechisch ?????????? d?mokrat¡a ?Volksherrschaft?. Demokratie ist eine Form des politischen Lebens auf Basis der Gleichheit und Freiheit aller Brger. Sie leitet die Willensbildung der Gemeinschaft vom gesamten Volk ab. Ihren Ursprung hat die Demokratie in den altgriechischen Stadtstaaten, wie in Athen um 500 v. Chr. Den Begriff Demokratie nehmen inzwischen sehr unterschiedliche politische Systeme fr sich in Anspruch</t>
+  </si>
+  <si>
+    <t>straftaten</t>
+  </si>
+  <si>
+    <t>Eine Straftat ist ein rechtswidriges Verhalten (Tat oder Unterlassen), das durch den Gesetzgeber mit Strafe bedroht ist. Grunds„tzlich ist nur vors„tzliches Verhalten strafbar; fahrl„ssiges nur dann, wenn dies das einschl„gige Gesetz explizit besagt (õ 15 StGB). In Deutschland wurden Straftaten bis 1974 unterteilt in Verbrechen, Vergehen und šbertretung. Seit 1975 gibt es nur noch eine Zweiteilung von Straftaten in Verbrechen und Vergehen. Die ehemaligen šbertretungen werden seitdem entweder als Vergehen oder als Ordnungswidrigkeit eingestuft</t>
+  </si>
+  <si>
+    <t>ideologie</t>
+  </si>
+  <si>
+    <t>Ideologie steht im weiteren Sinne bildungssprachlich fr Weltanschauung. Im engeren Sinne wird damit zum einen auf Karl Marx zurckgehend das ?falsche Bewusstsein? einer Gesellschaft bezeichnet, zum anderen wird in der US-amerikanischen Wissenssoziologie jedes System von sozialen Normen als Ideologie bezeichnet, das Gruppen zur Rechtfertigung und Bewertung eigener und fremder Handlungen verwenden</t>
+  </si>
+  <si>
+    <t>d„nemark</t>
+  </si>
+  <si>
+    <t>D„nemark ist ein Land im n”rdlichen Europa und neben Gr”nland und den F„r”ern eines der drei L„nder des K”nigreiches D„nemark. Das zwischen der Skandinavischen Halbinsel und Mitteleuropa gelegene Staatsgebiet umfasst eine Fl„che von 43.094 kmý, wovon 23.872 kmý auf die Halbinsel Jtland und der Rest auf Inseln entfallen. D„nemark ist eines der zw”lf Grndungsmitglieder der 1949 gegrndeten NATO und seit dem 1. Januar 1973 in der Europ„ischen Union (bzw. ihrer Vorg„ngerin EWG)</t>
+  </si>
+  <si>
+    <t>frauenhasser</t>
+  </si>
+  <si>
+    <t>Misogynie (von altgriechisch misos ?Hass?, und gyne ?Frau?) oder Frauenfeindlichkeit ist ein Oberbegriff fr soziokulturelle Einstellungsmuster der geringeren Relevanz oder Wertigkeit von Frauen beziehungsweise der h”heren Relevanz oder Wertigkeit von M„nnern. Sie wird sowohl von M„nnern als auch von Frauen selbst ber die psychosoziale Entwicklung verinnerlicht (Sozialisation, Habitualisierung) und stellt die Erzeugungsgrundlage fr den hierarchisierenden Geschlechtshabitus von M„nnlichkeit und Weiblichkeit dar. Sie ist damit die Basis hegemonialer M„nnlichkeit oder patriarchaler Beziehungsgefge</t>
+  </si>
+  <si>
+    <t>nazi</t>
+  </si>
+  <si>
+    <t>Nazi ist ein Kurzwort fr einen Anh„nger des Nationalsozialismus. Žhnliche Verkrzungen finden sich in den Begriffen wie Nazismus oder Entnazifizierung. Heute wird es umgangssprachlich meist abwertend und teilweise auch zur Bezeichnung von Fanatikern anderer Art gebraucht</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>Der Terror (lateinisch terror ?Schrecken?) ist die systematische und oftmals willkrlich erscheinende Verbreitung von Angst und Schrecken durch ausgebte oder angedrohte Gewalt, um Menschen gefgig zu machen. Laut Resolution 1566 des UN-Sicherheitsrates sind ?terroristische Handlungen solche, die mit T”tungs- oder schwerer K”rperverletzungsabsicht oder zur Geiselnahme und mit dem Zweck begangen werden, einen Zustand des Schreckens hervorzurufen, eine Bev”lkerung einzuschchtern oder etwa eine Regierung zu n”tigen, und dabei von den relevanten Terrorismusabkommen erfasst werden?.Das Ausben von Terror zur Erreichung politischer, wirtschaftlicher oder religi”ser Ziele nennt man Terrorismus</t>
+  </si>
+  <si>
+    <t>hannover</t>
+  </si>
+  <si>
+    <t>Hannover ist die Hauptstadt des Landes Niedersachsen. Der am Sdrand des Norddeutschen Tieflandes an der Leine und der Ihme gelegene Ort wurde 1150 erstmals erw„hnt und erhielt 1241 das Stadtrecht. Hannover war ab 1636 welfische Residenzstadt, ab 1692 Residenz Kurhannovers und ab 1814 Hauptstadt des K”nigreichs Hannover. Von 1714 bis 1837 bestand die Personalunion zwischen Groábritannien und Hannover, wonach Hannovers Monarchen auch gleichzeitig die K”nige Groábritanniens waren</t>
+  </si>
+  <si>
+    <t>niedersachsen</t>
+  </si>
+  <si>
+    <t>Niedersachsen ist ein Land im mittleren Nordwesten der Bundesrepublik Deutschland. Es entstand nach dem Zweiten Weltkrieg durch die Vereinigung des Landes Hannover mit den Freistaaten Braunschweig, Oldenburg und Schaumburg-Lippe.Das heutige Fl„chenland Niedersachsen steht mit rund 47.600 Quadratkilometern unter den 16 deutschen L„ndern auf dem zweiten Platz hinter Bayern und nimmt bei einer Einwohnerzahl von rund acht Millionen in dieser Hinsicht Platz vier ein. Neben der Landeshauptstadt Hannover gibt es sieben weitere Groást„dte: Braunschweig, Oldenburg, Osnabrck, Wolfsburg, G”ttingen, Hildesheim und Salzgitter</t>
+  </si>
+  <si>
+    <t>radikalisierung</t>
+  </si>
+  <si>
+    <t>Radikalisierung beschreibt den Prozess, in dem ein Individuum oder eine Gruppe radikale oder extreme politische, soziale oder religi”se Einstellungen und šberzeugungen entwickelt oder bernimmt und sich gegebenenfalls eine dementsprechende Ideologie zu Eigen macht</t>
+  </si>
+  <si>
+    <t>hildesheim</t>
+  </si>
+  <si>
+    <t>Hildesheim, niederdeutsch Hilmessen/Hilmssen, lateinisch Hildesia) ist eine Groástadt und Oberzentrum in Niedersachsen rund 30 km sd”stlich von Hannover. Sie hat rund 100.000 Einwohner.Der Sitz des katholischen Bistums Hildesheim war bis 1974 kreisfreie Stadt. 1974 wurde Hildesheim mit der Gebietsreform in Niedersachsen zur groáen selbst„ndigen Stadt und zur Groástadt und bildet seitdem mit dem Gebiet des ehemaligen Landkreises Hildesheim-Marienburg, seit 1977 erweitert um den ehemaligen Landkreis Alfeld (Leine), den Landkreis Hildesheim, dessen Kreisstadt sie ist</t>
+  </si>
+  <si>
+    <t>steinmeier</t>
+  </si>
+  <si>
+    <t>Frank-Walter Steinmeier (* 5. Januar 1956 in Detmold) ist ein deutscher Politiker (SPD). Er ist seit 19. M„rz 2017 der zw”lfte Bundespr„sident der Bundesrepublik Deutschland. Steinmeier wurde bei der Wahl am 13. Februar 2022 wiedergew„hlt. Von 1999 bis 2005 war Steinmeier Chef des Bundeskanzleramtes unter Gerhard Schr”der, von 2005 bis 2009 (Kabinett Merkel I) Auáenminister und ab 2007 auch Vizekanzler der Bundesrepublik. Seine zweite Amtszeit als Auáenminister dauerte von 2013 bis 2017 (Kabinett Merkel III)</t>
+  </si>
+  <si>
+    <t>Saybolt universal viscosity, veraltete Maáeinheit fr die kinematische Viskosit„t von ™l, siehe Saybolt Universal Second</t>
+  </si>
+  <si>
+    <t>wortzumsonntag</t>
+  </si>
+  <si>
+    <t>Wort zum Sonntag (so die Eigenschreibweise) ist eine religi”se Sendung des Schweizer Radios und Fernsehens, die w”chentlich am Samstagabend um 20:00 Uhr im Programm von SRF 1 ausgestrahlt wird. Die erste Sendung mit dem heutigen Titel wurde im Januar 1958 ausgestrahlt und ist damit eine der „ltesten Sendungen des Schweizer Fernsehens. Zuvor war sie vom 13. Juni 1954 bis 8. Januar 1958 unter dem Titel ®Zum heutigen Sonntag¯ im Programm</t>
+  </si>
+  <si>
+    <t>tankrabatt</t>
+  </si>
+  <si>
+    <t>Tankrabatt ist die umgangssprachliche Bezeichnung fr eine vom 1. Juni bis zum 31. August 2022 befristete Senkung der Energiesteuer auf Kraftstoffe in Deutschland durch die deutsche Bundesregierung</t>
+  </si>
+  <si>
+    <t>gardasee</t>
+  </si>
+  <si>
+    <t>Der Gardasee (italienisch Lago di Garda oder BŠnaco), einer der oberitalienischen Seen, ist der gr”áte See Italiens, benannt nach der Gemeinde Garda am Ostufer. Sein antiker Name lautete von etwa 200 v. Chr. bis 800 n. Chr. Lacus benacus. Der Name soll von einer alten Gottheit namens Benacus abstammen. Der Gardasee wurde in der vergangenen Eiszeit durch einen Seitenast des Etschgletschers geformt, dessen Spuren noch verfolgt werden kann, insbesondere durch die Endmor„nen um das Sdufer z. B. bei Lonato del Garda, Solferino, Valeggio sul Mincio und Custoza</t>
+  </si>
+  <si>
+    <t>payup4lossanddamage</t>
+  </si>
+  <si>
+    <t>Der englischsprachige Begriff Loss and Damage (dt. Verlust und Schaden, offiziell meist Verluste und Sch„den, auch Verlust und Zerst”rung) ist in der Umweltschutz- und Klimapolitik ein h„ufig verwendetes Schlagwort: Es umschreibt die Auswirkungen von klimabedingten Stressoren, die trotz der Bemhungen auftreten, Treibhausgas-Emissionen weltweit generell und zur Anpassung an Klimaver„nderungen zu reduzieren</t>
+  </si>
+  <si>
+    <t>bonnconference</t>
+  </si>
+  <si>
+    <t>Das World Conference Center Bonn (WCCB) ist ein Kongresszentrum im Bundesviertel von Bonn, in unmittelbarer N„he des Rheins. Es umfasst Teile des Bundeshauses ? darunter den Neuen Plenarsaal des Deutschen Bundestages ? und einen 2015 fertiggestellten Erweiterungsbau als neues Hauptgeb„ude. Das Kongresszentrum wurde 1999 als Internationales Kongresszentrum Bundeshaus Bonn (IKBB) gegrndet, 2007 erhielt es seinen heutigen Namen</t>
+  </si>
+  <si>
+    <t>vettel</t>
+  </si>
+  <si>
+    <t>Sebastian Vettel (* 3. Juli 1987 in Heppenheim) ist ein deutscher Automobilrennfahrer. Er startet seit 2007 in der Formel 1 und gewann dort in der Saison 2010 als zweiter Deutscher nach Michael Schumacher und bislang jngster Fahrer die Weltmeisterschaft. Mit der erfolgreichen Verteidigung des Titels 2011, 2012 und 2013 ist er einer von vier Fahrern, die viermal in Folge Weltmeister wurden</t>
+  </si>
+  <si>
+    <t>formel1</t>
+  </si>
+  <si>
+    <t>Die Formel 1 (oft auch mit F1 abgekrzt) ist eine vom Automobil-Dachverband F‚d‚ration Internationale de l?Automobile (FIA) autorisierte Formelserie. Die beteiligten Rennst„lle konstruieren Autos, die den in den Formel-1-Regeln festgelegten technischen Vorgaben entsprechen mssen. Diese Rennwagen treten im Rahmen der Formel-1-Weltmeisterschaft zu Grand-Prix-Rennen (deutsch Groáe Preise) an derzeit weltweit ungef„hr 20 Rennstrecken pro Jahr an. Am Ende der Saison wird der Fahrer mit den meisten Punkten Fahrerweltmeister und der Hersteller mit den meisten Punkten wird Konstrukteursweltmeister</t>
+  </si>
+  <si>
+    <t>nigeria</t>
+  </si>
+  <si>
+    <t>Nigeria Bundesrepublik Nigeria, veraltet Nigerien) ist ein Bundesstaat in Westafrika. Es ist mit ber 200 Millionen Einwohnern (2018) mit Abstand das bev”lkerungsreichste Land Afrikas und weltweit das Land mit der siebtgr”áten Bev”lkerung. Im Zeitraum von 1989 bis 2019 hat sich die Bev”lkerungszahl des Landes verdoppelt.Nigeria grenzt an den Atlantik und die L„nder Benin, Niger, Tschad und Kamerun</t>
+  </si>
+  <si>
+    <t>zigaretten</t>
+  </si>
+  <si>
+    <t>Eine Zigarette (franz”sisch cigarette, Diminutiv zu ?Zigarre?) ist ein rauchbares Tabakerzeugnis, das aus den fermentierten, getrockneten und feingeschnittenen Bl„ttern der Tabakpflanze hergestellt wird, die in Papier gestopft, gedreht, gefaltet oder gerollt werden. Tabakrauch wird als Rauschmittel verwendet und fand vor allem im 20</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>LGBT-Pride, auch Gay-Pride oder einfach nur Pride, ist ein englischer Begriff, der aus der amerikanischen Lesben- und Schwulenbewegung stammt und international bernommen wurde. Er beschreibt den selbstachtenden und damit stolzen Umgang mit der eigenen sexuellen Identit„t. Stolz wird dabei im Sinne eines gegenber anderen gezeigten Selbstwertgefhls verwendet, das heiát, so zu sein, wie man ist, sich nicht vor anderen verstecken oder sich fr andere verstellen zu wollen und gegebenenfalls fr seine Rechte einzutreten</t>
+  </si>
+  <si>
+    <t>schulen</t>
+  </si>
+  <si>
+    <t>Die Schule (lateinisch schola von altgriechisch, Ursprungsbedeutung: ?Máiggang?, ?Muáe?, sp„ter ?Studium?, ?Vorlesung?), auch Bildungsanstalt oder Lehranstalt genannt, ist eine Institution, deren Bildungsauftrag im Lehren und Lernen, also in der Vermittlung von Wissen und K”nnen durch Lehrer an Schler, aber auch in der Wertevermittlung und in der Erziehung und Bildung zu mndigen, sich verantwortlich in die Gesellschaft einbringenden Pers”nlichkeiten, besteht</t>
+  </si>
+  <si>
+    <t>schulleitung</t>
+  </si>
+  <si>
+    <t>Die dienstlichen Aufgaben der Schulleitung (Schulleiter bzw. Schulleiterin, teilweise auch Direktor/Direktorin bzw. Rektor/Rektorin) sind in Deutschland in den verschiedenen Schularten durch die 16 verschiedenen Landesschulgesetze geregelt</t>
+  </si>
+  <si>
+    <t>meinungsmache</t>
+  </si>
+  <si>
+    <t>Der Ausdruck Medienmanipulation wird in zweierlei Weise verwendet: Meist wird er verwendet, um eine tats„chliche oder vermeintliche Manipulation der ”ffentlichen Meinung durch die Medien zu bezeichnen.Ebenfalls Verwendung findet der Begriff, um eine Manipulation der Medien mit dem Ziel einer bestimmten Ver”ffentlichung zu beschreiben. Abgrenzung: Sofern dies nicht als Manipulation, sondern als Information transparent und den journalistischen Handwerksregeln gem„á erfolgt, spricht man von Pressearbeit oder Medienarbeit</t>
+  </si>
+  <si>
+    <t>demonstration</t>
+  </si>
+  <si>
+    <t>Eine Demonstration, verkrzt auch Demo, ist eine in der ™ffentlichkeit stattfindende Versammlung mehrerer Personen zum Zwecke der gemeinsamen Meinungs„uáerung. Gelegentlich werden Demonstrationen auch als Aufmarsch bezeichnet, insbesondere, wenn sie im extremistischen Kontext stehen.In Deutschland ist das Demonstrationsrecht ein Grundrecht, das im Artikel 8 des Grundgesetzes verankert ist</t>
+  </si>
+  <si>
+    <t>elektromobilit„t</t>
+  </si>
+  <si>
+    <t>Elektromobilit„t beschreibt die Beweglichkeit von Personen und Gtern im geographischen Raum mithilfe elektrischer Antriebe. Die Elektromobilit„t gilt als zentraler Baustein eines nachhaltigen und klimaschonenden Verkehrssystems auf Basis erneuerbarer Energien, wie es mit der Verkehrswende angestrebt wird. Gem„á Weltklimarat IPCC besitzen Elektroautos, die mit Strom aus emissionsarmen Quellen angetrieben werden, ber ihren gesamten Lebenszyklus das gr”áte Klimaschutzpotential aller landgebundenen Transporttechnologien</t>
+  </si>
+  <si>
+    <t>mannheim</t>
+  </si>
+  <si>
+    <t>Die Universit„tsstadt Mannheim (kurpf„lzisch Mannem [man?m], auch Monnem) ist ein Stadtkreis mit 309.817 Einwohnern (31. Dezember 2020) im Regierungsbezirk Karlsruhe in Baden-Wrttemberg. Sie ist nach Stuttgart und vor Karlsruhe die zweitgr”áte Stadt des Landes. Die ehemalige Residenzstadt (1720?1778) der Kurpfalz mit ihrem stadtpr„genden Barockschloss, einer der gr”áten Schlossanlagen der Welt, bildet das wirtschaftliche und kulturelle Zentrum der Metropolregion Rhein-Neckar mit 2,35 Millionen Einwohnern</t>
+  </si>
+  <si>
+    <t>drre</t>
+  </si>
+  <si>
+    <t>Drre ist ein extremer, ber einen l„ngeren Zeitraum vorherrschender Zustand, in dem weniger Wasser oder Niederschlag verfgbar ist als erforderlich. Drre ist nicht nur ein physikalisches Ph„nomen, sondern auch ein Wechselspiel zwischen der Verfgbarkeit und dem Wasserbedarf von Organismen.</t>
+  </si>
+  <si>
+    <t>bayern</t>
+  </si>
+  <si>
+    <t>Der Freistaat Bayern ([?ba???n] ; L„ndercode BY), kurz Bayern, ist das fl„chengr”áte der 16 L„nder der Bundesrepublik Deutschland und liegt in deren Sdosten. Mit mehr als 13 Millionen Einwohnern ist er das zweitbev”lkerungsreichste Bundesland.</t>
+  </si>
+  <si>
+    <t>paderborn</t>
+  </si>
+  <si>
+    <t>Die Stadt Paderborn ist mit ber 150.000 Einwohnern eine Groástadt im ”stlichen Teil des Landes Nordrhein-Westfalen. Sie liegt im gleichnamigen Kreis und ist dessen Kreisstadt, ist Universit„tsstadt, Oberzentrum und Mittelpunkt der Region Hochstift Paderborn. Der Name weist auf die Quellen der Pader im heutigen Stadtzentrum hin.</t>
+  </si>
+  <si>
+    <t>ahrtal</t>
+  </si>
+  <si>
+    <t>Das Ahrtal ist nach der Ahr, einem linken Nebenfluss des Rheins, benannt. Es beginnt mit der Ahrquelle bei Blankenheim im nordrhein-westf„lischen Kreis Euskirchen und verl„uft generell ostw„rts. An seinem sdlichsten Punkt wird der Landkreis Ahrweiler, und damit Rheinland-Pfalz, erreicht. Durch die Verbandsgemeinde Adenau verlaufend, knickt das Tal am Zusammenfluss mit dem Adenauer Bach nach Nordosten ab und erreicht die Verbandsgemeinde Altenahr, ab deren Hauptort sich der typische West-Ost-Verlauf wieder einstellt, wenn auch von Flussschleifen unterbrochen</t>
+  </si>
+  <si>
+    <t>umweltzerst”rung</t>
+  </si>
+  <si>
+    <t>Der Umweltschaden ist eine anthropogene Sch„digung von B”den, Gew„ssern, Luft, Pflanzen oder Tieren</t>
+  </si>
+  <si>
+    <t>krieg</t>
+  </si>
+  <si>
+    <t>Als Krieg wird ein organisierter und unter Einsatz erheblicher Mittel mit Waffen und Gewalt ausgetragener Konflikt bezeichnet, an dem planm„áig vorgehende Kollektive beteiligt sind. Ziel der beteiligten Kollektive ist es, ihre Interessen durchzusetzen. Der Konflikt soll durch Kampf und Erreichen einer šberlegenheit gel”st werden</t>
+  </si>
+  <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>Ein Raumfahrer (auch Weltraumfahrer) ist ein Teilnehmer an einer bemannten Expedition in den Weltraum. Der erste Raumfahrer war Juri Gagarin; er umrundete am 12. April 1961 einmal die Erde. Je nach Raumfahrtorganisation werden Raumfahrer als Kosmonauten (Sowjetunion, DDR, Roskosmos/Russland) oder Astronauten (z. B. NASA, ESA, CSA, JAXA) bezeichnet. Andere Nationen verwenden auch weitere Begriffe (z. B. Taikonaut in der VR China, Spationaute in Frankreich, Angkasawan in Malaysia und Wiomanaut in Indien).</t>
+  </si>
+  <si>
+    <t>maurer</t>
+  </si>
+  <si>
+    <t>Ein Maurer ist ein Bauhandwerker, dessen namensgebende Kernt„tigkeit die Erstellung von Mauerwerk ist. Der Maurer ist der Hauptbauhandwerker des Rohbaus. Daher fhrt er bei kleineren Bauprojekten (Einfamilienh„user) meist auch Beton-, Stahlbeton-, Estrich- und Putz- sowie Abdichtungs- und Entw„sserungsarbeiten aus. Im Zuge der fortschreitenden Arbeitsteilung im Bauwesen haben sich fr viele Bereiche des breiten Berufsbilds des Maurers zus„tzlich Spezialisten mit engerem Berufsbild entwickelt, die vorwiegend auf gr”áeren Baustellen t„tig sind. Beispielsweise k”nnen Maurer sich betrieblich spezialisieren und auch als Betoninstandsetzer arbeiten</t>
+  </si>
+  <si>
+    <t>wattenmeer</t>
+  </si>
+  <si>
+    <t>Wattenmeere (abgeleitet von Watt) sind bestimmte Kstenbereiche eines Meeres, die unter einem starken Einfluss der Gezeiten stehen. Weite Fl„chen eines Wattenmeeres fallen regelm„áig zweimal t„glich w„hrend der Niedrigwasserzeit (Ebbe) trocken und sind w„hrend der Hochwasserzeit (Flut) berflutet. Die bei Ebbe trocken fallenden Fl„chen bezeichnet man als Wattfl„chen. Der Begriff Wattenmeer wird allerdings nur auf Flachksten mit Sand- oder Schlickwatten angewendet. Die Rinnen, durch die bei Ebbe das Wasser bevorzugt aus dem Watt abl„uft bzw. bei Flut bevorzugt in das Watt einstr”mt, werden Priele, die gr”áten davon Seegatten genannt.</t>
+  </si>
+  <si>
+    <t>schwerin</t>
+  </si>
+  <si>
+    <t>Schwerin ist die Landeshauptstadt von Mecklenburg-Vorpommern. Die kreisfreie Mittelstadt ist die kleinste Landeshauptstadt der Bundesrepublik Deutschland. Schwerin ist nach Rostock die zweitgr”áte Stadt und eines der vier Oberzentren des Bundeslandes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +2052,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF67676A"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303336"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1100,11 +2413,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1459,11 +2777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:XFD257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,76 +2835,76 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1594,688 +2912,2433 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
-      </c>
-      <c r="B63" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
         <v>175</v>
-      </c>
-      <c r="B90" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
         <v>179</v>
-      </c>
-      <c r="B92" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
         <v>181</v>
-      </c>
-      <c r="B93" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
         <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
         <v>185</v>
-      </c>
-      <c r="B95" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
         <v>187</v>
-      </c>
-      <c r="B96" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
         <v>189</v>
-      </c>
-      <c r="B97" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
         <v>191</v>
-      </c>
-      <c r="B98" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
         <v>193</v>
-      </c>
-      <c r="B99" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>360</v>
+      </c>
+      <c r="B185" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>363</v>
+      </c>
+      <c r="B189" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>364</v>
+      </c>
+      <c r="B190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>365</v>
+      </c>
+      <c r="B191" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>366</v>
+      </c>
+      <c r="B192" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>367</v>
+      </c>
+      <c r="B193" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>368</v>
+      </c>
+      <c r="B194" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>371</v>
+      </c>
+      <c r="B197" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>372</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>373</v>
+      </c>
+      <c r="B199" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>374</v>
+      </c>
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>375</v>
+      </c>
+      <c r="B201" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>376</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>378</v>
+      </c>
+      <c r="B204" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>379</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>381</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>470</v>
+      </c>
+      <c r="B237" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>474</v>
+      </c>
+      <c r="B239" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>299</v>
+      </c>
+      <c r="B257" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>518</v>
+      </c>
+      <c r="B262" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>520</v>
+      </c>
+      <c r="B263" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>153</v>
+      </c>
+      <c r="B264" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>534</v>
+      </c>
+      <c r="B271" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>536</v>
+      </c>
+      <c r="B272" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>300</v>
+      </c>
+      <c r="B273" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>539</v>
+      </c>
+      <c r="B274" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>543</v>
+      </c>
+      <c r="B276" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>545</v>
+      </c>
+      <c r="B277" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>549</v>
+      </c>
+      <c r="B279" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>553</v>
+      </c>
+      <c r="B281" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>555</v>
+      </c>
+      <c r="B282" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>559</v>
+      </c>
+      <c r="B284" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>563</v>
+      </c>
+      <c r="B286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>565</v>
+      </c>
+      <c r="B287" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>567</v>
+      </c>
+      <c r="B288" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>569</v>
+      </c>
+      <c r="B289" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>571</v>
+      </c>
+      <c r="B290" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>135</v>
+      </c>
+      <c r="B292" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>576</v>
+      </c>
+      <c r="B293" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>580</v>
+      </c>
+      <c r="B295" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>584</v>
+      </c>
+      <c r="B297" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>586</v>
+      </c>
+      <c r="B298" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>588</v>
+      </c>
+      <c r="B299" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>590</v>
+      </c>
+      <c r="B300" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>592</v>
+      </c>
+      <c r="B301" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>594</v>
+      </c>
+      <c r="B302" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>596</v>
+      </c>
+      <c r="B303" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>598</v>
+      </c>
+      <c r="B304" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>600</v>
+      </c>
+      <c r="B305" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>602</v>
+      </c>
+      <c r="B306" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>604</v>
+      </c>
+      <c r="B307" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>606</v>
+      </c>
+      <c r="B308" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>608</v>
+      </c>
+      <c r="B309" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>610</v>
+      </c>
+      <c r="B310" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>612</v>
+      </c>
+      <c r="B311" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>614</v>
+      </c>
+      <c r="B312" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>616</v>
+      </c>
+      <c r="B313" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>618</v>
+      </c>
+      <c r="B314" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>620</v>
+      </c>
+      <c r="B315" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>622</v>
+      </c>
+      <c r="B316" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>624</v>
+      </c>
+      <c r="B317" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>626</v>
+      </c>
+      <c r="B318" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>